--- a/public/NHSExcel.xlsx
+++ b/public/NHSExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\Google AI Studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B515AC0-0E6D-45EF-9285-49625E6A91E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549E07CA-F459-4FBB-92C1-8D8F77C9925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HourTracker" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="676">
   <si>
     <t>Date</t>
   </si>
@@ -2075,6 +2075,27 @@
   </si>
   <si>
     <t>Bimbo</t>
+  </si>
+  <si>
+    <t>Splash Text</t>
+  </si>
+  <si>
+    <t>═ Michael Losito ═</t>
+  </si>
+  <si>
+    <t>═ Wednesday Addams ═</t>
+  </si>
+  <si>
+    <t>═ Garfield ═</t>
+  </si>
+  <si>
+    <t>═ Anyone else play Roblox? ═</t>
+  </si>
+  <si>
+    <t>═ 3.14159265358979323 ═</t>
+  </si>
+  <si>
+    <t>═ 1984 by George Orwell ═</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2239,6 +2260,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2265,7 +2295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2296,6 +2326,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2303,30 +2334,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5547,10 +5579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CA057-A9D8-4BBA-AF00-0DA3974C24B1}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5564,9 +5596,10 @@
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>253</v>
       </c>
@@ -5574,40 +5607,55 @@
         <f ca="1">TODAY()</f>
         <v>45827</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B2" s="8">
         <v>45810</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="8">
         <v>45880</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="8">
         <v>46029</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>642</v>
       </c>
       <c r="B5" s="8">
         <v>46170</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>254</v>
       </c>
@@ -5623,8 +5671,11 @@
       <c r="O6" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -5661,8 +5712,11 @@
       <c r="P7" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="18" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>46146</v>
       </c>
@@ -5710,7 +5764,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H9" s="8">
         <v>46877</v>
       </c>
@@ -6741,8 +6795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC9C2CD-6AC6-4B55-8184-14690E8A586C}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6763,40 +6817,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>348</v>
       </c>
       <c r="C1" s="17"/>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>348</v>
       </c>
       <c r="I1" s="17"/>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="9" t="s">
         <v>347</v>
       </c>
@@ -6811,40 +6865,40 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="24" t="s">
         <v>522</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="24" t="s">
         <v>541</v>
       </c>
       <c r="I2" s="17"/>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="19"/>
       <c r="Q2" t="s">
         <v>380</v>
       </c>
@@ -6859,40 +6913,40 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="24" t="s">
         <v>523</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="24" t="s">
         <v>542</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="P3" s="18"/>
+      <c r="P3" s="19"/>
       <c r="Q3" t="s">
         <v>350</v>
       </c>
@@ -6907,40 +6961,40 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>524</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="24" t="s">
         <v>543</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="P4" s="18"/>
+      <c r="P4" s="19"/>
       <c r="Q4" t="s">
         <v>482</v>
       </c>
@@ -6955,40 +7009,40 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>525</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="24" t="s">
         <v>544</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="P5" s="18"/>
+      <c r="P5" s="19"/>
       <c r="Q5" t="s">
         <v>483</v>
       </c>
@@ -7003,40 +7057,40 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="24" t="s">
         <v>526</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="24" t="s">
         <v>545</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="P6" s="18"/>
+      <c r="P6" s="19"/>
       <c r="Q6" t="s">
         <v>405</v>
       </c>
@@ -7051,34 +7105,34 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="24" t="s">
         <v>527</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="24" t="s">
         <v>546</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="P7" s="18"/>
+      <c r="P7" s="19"/>
       <c r="Q7" t="s">
         <v>411</v>
       </c>
@@ -7093,40 +7147,40 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="24" t="s">
         <v>528</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="24" t="s">
         <v>547</v>
       </c>
       <c r="I8" s="17"/>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="P8" s="18"/>
+      <c r="P8" s="19"/>
       <c r="Q8" t="s">
         <v>416</v>
       </c>
@@ -7141,40 +7195,40 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="24" t="s">
         <v>529</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="24" t="s">
         <v>548</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="P9" s="18"/>
+      <c r="P9" s="19"/>
       <c r="Q9" t="s">
         <v>420</v>
       </c>
@@ -7189,40 +7243,40 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="24" t="s">
         <v>530</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="24" t="s">
         <v>549</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="P10" s="18"/>
+      <c r="P10" s="19"/>
       <c r="Q10" t="s">
         <v>427</v>
       </c>
@@ -7237,34 +7291,34 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="24" t="s">
         <v>531</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="24" t="s">
         <v>550</v>
       </c>
       <c r="I11" s="17"/>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="P11" s="18"/>
+      <c r="P11" s="19"/>
       <c r="Q11" t="s">
         <v>438</v>
       </c>
@@ -7279,34 +7333,34 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="24" t="s">
         <v>522</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="24" t="s">
         <v>541</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="P12" s="18"/>
+      <c r="P12" s="19"/>
       <c r="Q12" t="s">
         <v>444</v>
       </c>
@@ -7321,40 +7375,40 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="24" t="s">
         <v>523</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="24" t="s">
         <v>542</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="P13" s="18"/>
+      <c r="P13" s="19"/>
       <c r="Q13" t="s">
         <v>448</v>
       </c>
@@ -7369,40 +7423,40 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="26" t="s">
         <v>524</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="26" t="s">
         <v>551</v>
       </c>
       <c r="I14" s="17"/>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="P14" s="18"/>
+      <c r="P14" s="19"/>
       <c r="Q14" t="s">
         <v>451</v>
       </c>
@@ -7418,26 +7472,26 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="17"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="26" t="s">
         <v>581</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="19"/>
       <c r="Q15" t="s">
         <v>456</v>
       </c>
@@ -7452,27 +7506,27 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>348</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="22" t="s">
         <v>348</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="P16" s="18"/>
+      <c r="P16" s="19"/>
       <c r="Q16" t="s">
         <v>460</v>
       </c>
@@ -7487,38 +7541,38 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="24" t="s">
         <v>588</v>
       </c>
       <c r="I17" s="17"/>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="P17" s="18"/>
+      <c r="P17" s="19"/>
       <c r="Q17" t="s">
         <v>472</v>
       </c>
@@ -7533,38 +7587,38 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="24">
         <v>708090</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="24" t="s">
         <v>589</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="P18" s="18"/>
+      <c r="P18" s="19"/>
       <c r="Q18" t="s">
         <v>467</v>
       </c>
@@ -7579,33 +7633,33 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="24">
         <v>737090</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="24" t="s">
         <v>590</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="36" t="s">
         <v>614</v>
       </c>
-      <c r="P19" s="18"/>
+      <c r="P19" s="19"/>
       <c r="Q19" t="s">
         <v>477</v>
       </c>
@@ -7620,341 +7674,341 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="26">
         <v>867090</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="24" t="s">
         <v>591</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="P20" s="18"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="31"/>
-      <c r="E21" s="25"/>
-      <c r="G21" s="29" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="27"/>
+      <c r="G21" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="24" t="s">
         <v>592</v>
       </c>
       <c r="I21" s="17"/>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="P21" s="18"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="26" t="s">
         <v>593</v>
       </c>
       <c r="I22" s="17"/>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="M22" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="P22" s="18"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="24" t="s">
         <v>582</v>
       </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="P23" s="18"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="22" t="s">
         <v>348</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="P24" s="18"/>
+      <c r="P24" s="19"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="24" t="s">
         <v>594</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="P25" s="18"/>
+      <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="24" t="s">
         <v>595</v>
       </c>
       <c r="I26" s="17"/>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="P26" s="18"/>
+      <c r="P26" s="19"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="31" t="s">
         <v>470</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="P27" s="18"/>
+      <c r="P27" s="19"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="26" t="s">
         <v>597</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="M28" s="30" t="s">
+      <c r="M28" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="P28" s="18"/>
+      <c r="P28" s="19"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="24" t="s">
         <v>575</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="P29" s="18"/>
+      <c r="P29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="24" t="s">
         <v>576</v>
       </c>
       <c r="I30" s="17"/>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="P30" s="18"/>
+      <c r="P30" s="19"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="24" t="s">
         <v>577</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="P31" s="18"/>
+      <c r="P31" s="19"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="26" t="s">
         <v>578</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="P32" s="18"/>
+      <c r="P32" s="19"/>
     </row>
     <row r="33" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P33" s="18"/>
+      <c r="P33" s="19"/>
     </row>
     <row r="34" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P34" s="18"/>
+      <c r="P34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8071,7 +8125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F196DA-82B1-4A44-9BC5-41ACDEEEE3A3}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -8126,12 +8180,12 @@
       <c r="F4" t="s">
         <v>666</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="35" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/NHSExcel.xlsx
+++ b/public/NHSExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\Google AI Studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549E07CA-F459-4FBB-92C1-8D8F77C9925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFF7CE8-1107-4B2C-AE2D-F89D966352AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HourTracker" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="677">
   <si>
     <t>Date</t>
   </si>
@@ -2096,6 +2096,9 @@
   </si>
   <si>
     <t>═ 1984 by George Orwell ═</t>
+  </si>
+  <si>
+    <t>Test Additional Rows</t>
   </si>
 </sst>
 </file>
@@ -3017,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW202"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:A100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,18 +3477,12 @@
         <f>IFERROR(Members!C3,"")</f>
         <v>Allen, Danielle</v>
       </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:101" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f>IFERROR(Members!C4,"")</f>
         <v>Anderson, Hayleigh</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
@@ -3516,15 +3513,6 @@
         <f>IFERROR(Members!C9,"")</f>
         <v>Aylward, Aidan</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:101" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
@@ -3653,103 +3641,97 @@
         <v>Goguen, Savannah</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IFERROR(Members!C31,"")</f>
         <v>Hilderbrand, Isaac</v>
       </c>
-      <c r="C33" s="2">
-        <v>3</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f>IFERROR(Members!C32,"")</f>
         <v>Hiles, Elizabeth</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IFERROR(Members!C33,"")</f>
         <v>Hogan, Owen</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f>IFERROR(Members!C34,"")</f>
         <v>Hopper, Ernest</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IFERROR(Members!C35,"")</f>
         <v>Irizarry, Joel</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f>IFERROR(Members!C36,"")</f>
         <v>James, A'Iyana</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IFERROR(Members!C37,"")</f>
         <v>Jimenez, Nathan</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f>IFERROR(Members!C38,"")</f>
         <v>Johansen, Kylie</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IFERROR(Members!C39,"")</f>
         <v>Klima, Anthony</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f>IFERROR(Members!C40,"")</f>
         <v>Kondrukevich, Andrey</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IFERROR(Members!C41,"")</f>
         <v>Lane, Grace</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f>IFERROR(Members!C42,"")</f>
         <v>Lanza, Jack</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>IFERROR(Members!C43,"")</f>
         <v>Espinal, Darem Lizardo</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f>IFERROR(Members!C44,"")</f>
         <v>Lopiano, Ashley</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f>IFERROR(Members!C45,"")</f>
         <v>Lopiano, Emily</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f>IFERROR(Members!C46,"")</f>
         <v>Lopez, Genesis Lozada</v>
@@ -3947,132 +3929,122 @@
         <v>Turner, Alyssa</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IFERROR(Members!C79,"")</f>
         <v>Turrel, Savanah</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="str">
         <f>IFERROR(Members!C80,"")</f>
         <v>Villeda, Natalia</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IFERROR(Members!C81,"")</f>
         <v>Void, A.Dove</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="str">
         <f>IFERROR(Members!C82,"")</f>
         <v>Watkins, Chris</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
         <f>IFERROR(Members!C83,"")</f>
         <v>Wutzler, Jason</v>
       </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="str">
         <f>IFERROR(Members!C84,"")</f>
         <v>Wynn, Shannen</v>
       </c>
-      <c r="C86" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IFERROR(Members!C85,"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IFERROR(Members!C99,"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="str">
         <f>IFERROR(Members!C100,"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
         <f>IFERROR(Members!C101,"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
         <f>IFERROR(Members!C102,"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="str">
         <f>IFERROR(Members!C103,"")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="str">
         <f>IFERROR(Members!C104,"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="str">
         <f>IFERROR(Members!C105,"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
         <f>IFERROR(Members!C106,"")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
         <f>IFERROR(Members!C107,"")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="str">
         <f>IFERROR(Members!C108,"")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="str">
         <f>IFERROR(Members!C109,"")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
         <f>IFERROR(Members!C110,"")</f>
         <v/>
@@ -4927,10 +4899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F346D39-968D-4207-91BD-686EE59FB864}">
-  <dimension ref="A3:D101"/>
+  <dimension ref="A6:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:A100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4938,600 +4910,596 @@
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="str">
         <f>IFERROR(Members!C3,"")</f>
         <v>Allen, Danielle</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B10" s="8">
         <v>45720</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
+      <c r="E10" s="8">
+        <v>45799</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
         <f>IFERROR(Members!C4,"")</f>
         <v>Anderson, Hayleigh</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B11" s="8">
         <v>45720</v>
       </c>
-      <c r="C6">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
         <f>IFERROR(Members!C5,"")</f>
         <v>Arnold, Mackenna</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B12" s="8">
         <v>45720</v>
       </c>
-      <c r="C7">
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
         <f>IFERROR(Members!C6,"")</f>
         <v>Attenhofer, Bryce</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B13" s="8">
         <v>45720</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
         <f>IFERROR(Members!C7,"")</f>
         <v>Aviles, Jesairys</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B14" s="8">
         <v>45720</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D14" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
         <f>IFERROR(Members!C8,"")</f>
         <v>Ayala, Peyton</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B15" s="8">
         <v>45720</v>
       </c>
-      <c r="C10">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D15" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="str">
         <f>IFERROR(Members!C9,"")</f>
         <v>Aylward, Aidan</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="str">
         <f>IFERROR(Members!C10,"")</f>
         <v>Bailus, Erin</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="str">
         <f>IFERROR(Members!C11,"")</f>
         <v>Ballesteros, Sharon</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
         <f>IFERROR(Members!C12,"")</f>
         <v>Bell, Rayvon</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="str">
         <f>IFERROR(Members!C13,"")</f>
         <v>Blasczienski, Wyatt</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
         <f>IFERROR(Members!C14,"")</f>
         <v>Brown, Teddy</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="str">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="str">
         <f>IFERROR(Members!C15,"")</f>
         <v>Campbell, Cade</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="str">
         <f>IFERROR(Members!C16,"")</f>
         <v>Ramos, Arielyz Candelaria</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="str">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
         <f>IFERROR(Members!C17,"")</f>
         <v>Clemons, Aubrey</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
         <f>IFERROR(Members!C18,"")</f>
         <v>Clinard, Baylyn</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="str">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="str">
         <f>IFERROR(Members!C19,"")</f>
         <v>Colon, Anaya</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
         <f>IFERROR(Members!C20,"")</f>
         <v>Congleton, Lily Anne</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="str">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="str">
         <f>IFERROR(Members!C21,"")</f>
         <v>Conte-Marshall, Juliana</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="str">
         <f>IFERROR(Members!C22,"")</f>
         <v>Dexter-Ward, Kylie</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="str">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="str">
         <f>IFERROR(Members!C23,"")</f>
         <v>Diaz, Kailey</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="str">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
         <f>IFERROR(Members!C24,"")</f>
         <v>Doyle, Azarah</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="str">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="str">
         <f>IFERROR(Members!C25,"")</f>
         <v>Earnest, Brayden</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="str">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
         <f>IFERROR(Members!C26,"")</f>
         <v>Emerson, Jonah</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="str">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="str">
         <f>IFERROR(Members!C27,"")</f>
         <v>Fashik, Cristian</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="str">
         <f>IFERROR(Members!C28,"")</f>
         <v>Freedberg, Benjamin</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="str">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="str">
         <f>IFERROR(Members!C29,"")</f>
         <v>Gainey, Jersey</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="str">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
         <f>IFERROR(Members!C30,"")</f>
         <v>Goguen, Savannah</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="str">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="str">
         <f>IFERROR(Members!C31,"")</f>
         <v>Hilderbrand, Isaac</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B38" s="8">
         <v>45720</v>
       </c>
-      <c r="C33">
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
         <f>IFERROR(Members!C32,"")</f>
         <v>Hiles, Elizabeth</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="str">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="str">
         <f>IFERROR(Members!C33,"")</f>
         <v>Hogan, Owen</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="str">
         <f>IFERROR(Members!C34,"")</f>
         <v>Hopper, Ernest</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="str">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="str">
         <f>IFERROR(Members!C35,"")</f>
         <v>Irizarry, Joel</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="str">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
         <f>IFERROR(Members!C36,"")</f>
         <v>James, A'Iyana</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="str">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="str">
         <f>IFERROR(Members!C37,"")</f>
         <v>Jimenez, Nathan</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="str">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="str">
         <f>IFERROR(Members!C38,"")</f>
         <v>Johansen, Kylie</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="str">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="str">
         <f>IFERROR(Members!C39,"")</f>
         <v>Klima, Anthony</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="str">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
         <f>IFERROR(Members!C40,"")</f>
         <v>Kondrukevich, Andrey</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="str">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="str">
         <f>IFERROR(Members!C41,"")</f>
         <v>Lane, Grace</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="str">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
         <f>IFERROR(Members!C42,"")</f>
         <v>Lanza, Jack</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="str">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="str">
         <f>IFERROR(Members!C43,"")</f>
         <v>Espinal, Darem Lizardo</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="str">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
         <f>IFERROR(Members!C44,"")</f>
         <v>Lopiano, Ashley</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="str">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="str">
         <f>IFERROR(Members!C45,"")</f>
         <v>Lopiano, Emily</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="str">
         <f>IFERROR(Members!C46,"")</f>
         <v>Lopez, Genesis Lozada</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="str">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="str">
         <f>IFERROR(Members!C47,"")</f>
         <v>Lucaric, Patrick</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="str">
         <f>IFERROR(Members!C48,"")</f>
         <v>MacDonald, Chelbie</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="str">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="str">
         <f>IFERROR(Members!C49,"")</f>
         <v>Maffei, Annabella</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="str">
         <f>IFERROR(Members!C50,"")</f>
         <v>Maurice, Bella</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="str">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="str">
         <f>IFERROR(Members!C51,"")</f>
         <v>Miles, Amarius</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="str">
         <f>IFERROR(Members!C52,"")</f>
         <v>Nikolajski, Aria</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="str">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="str">
         <f>IFERROR(Members!C53,"")</f>
         <v>Nunez, Gianna</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="str">
         <f>IFERROR(Members!C54,"")</f>
         <v>O'Cull, Randi</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="str">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="str">
         <f>IFERROR(Members!C55,"")</f>
         <v>Packer, Mckennly</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="str">
         <f>IFERROR(Members!C56,"")</f>
         <v>Padro, Isabella</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="str">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="str">
         <f>IFERROR(Members!C57,"")</f>
         <v>Pagan, Jasmine</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
         <f>IFERROR(Members!C58,"")</f>
         <v>Page, Madison</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="str">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="str">
         <f>IFERROR(Members!C59,"")</f>
         <v>Paradiso, Victoria</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
         <f>IFERROR(Members!C60,"")</f>
         <v>Echevarria, Mia Perez</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="str">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="str">
         <f>IFERROR(Members!C61,"")</f>
         <v>Reser, Seanna</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
         <f>IFERROR(Members!C62,"")</f>
         <v>Reyes, Aryanna</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="str">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="str">
         <f>IFERROR(Members!C63,"")</f>
         <v>Rhea-Enriquez, Tegan</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="str">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="str">
         <f>IFERROR(Members!C64,"")</f>
         <v>Chilel, Allen Romero</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="str">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="str">
         <f>IFERROR(Members!C65,"")</f>
         <v>Oro, Raglan Roper</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="str">
         <f>IFERROR(Members!C66,"")</f>
         <v>Schmeiser, Eric</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="str">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="str">
         <f>IFERROR(Members!C67,"")</f>
         <v>Sergi, Gabriella</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="str">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="str">
         <f>IFERROR(Members!C68,"")</f>
         <v>Shelton, Sydnie</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="str">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="str">
         <f>IFERROR(Members!C69,"")</f>
         <v>Sirolli, Regan</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="str">
         <f>IFERROR(Members!C70,"")</f>
         <v>Skinner, Cara</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="str">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="str">
         <f>IFERROR(Members!C71,"")</f>
         <v>Stalbaum, Rylie</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="str">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="str">
         <f>IFERROR(Members!C72,"")</f>
         <v>Stem, Ariana</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="str">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="str">
         <f>IFERROR(Members!C73,"")</f>
         <v>Stewart, Grayson</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="str">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="str">
         <f>IFERROR(Members!C74,"")</f>
         <v>Streb, Mackenzie</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="str">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="str">
         <f>IFERROR(Members!C75,"")</f>
         <v>Stuck, Dawson</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="str">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="str">
         <f>IFERROR(Members!C76,"")</f>
         <v>Tienter-McCready, Devlin</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="str">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="str">
         <f>IFERROR(Members!C77,"")</f>
         <v>Torres, Gabriela</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="str">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="str">
         <f>IFERROR(Members!C78,"")</f>
         <v>Turner, Alyssa</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="str">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="str">
         <f>IFERROR(Members!C79,"")</f>
         <v>Turrel, Savanah</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="str">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="str">
         <f>IFERROR(Members!C80,"")</f>
         <v>Villeda, Natalia</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="str">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="str">
         <f>IFERROR(Members!C81,"")</f>
         <v>Void, A.Dove</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="str">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="str">
         <f>IFERROR(Members!C82,"")</f>
         <v>Watkins, Chris</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="str">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="str">
         <f>IFERROR(Members!C83,"")</f>
         <v>Wutzler, Jason</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="str">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="str">
         <f>IFERROR(Members!C84,"")</f>
         <v>Wynn, Shannen</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="str">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="str">
         <f>IFERROR(Members!C85,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
@@ -5581,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CA057-A9D8-4BBA-AF00-0DA3974C24B1}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5627,7 +5595,7 @@
         <v>251</v>
       </c>
       <c r="B3" s="8">
-        <v>45880</v>
+        <v>45668</v>
       </c>
       <c r="R3" t="s">
         <v>671</v>
@@ -6119,10 +6087,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336726DB-5721-4490-AE16-35FE44E118ED}">
-  <dimension ref="A2:N102"/>
+  <dimension ref="A2:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:A101"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6182,13 +6150,6 @@
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -6198,11 +6159,9 @@
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
-        <f>IFERROR(Members!C3,"")</f>
-        <v>Allen, Danielle</v>
-      </c>
-      <c r="C6" s="17"/>
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -6216,12 +6175,9 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
-        <f>IFERROR(Members!C4,"")</f>
-        <v>Anderson, Hayleigh</v>
-      </c>
-      <c r="B7" t="s">
-        <v>349</v>
+      <c r="A7" s="2" t="str">
+        <f>IFERROR(Members!C3,"")</f>
+        <v>Allen, Danielle</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -6237,551 +6193,565 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="4" t="str">
+        <f>IFERROR(Members!C4,"")</f>
+        <v>Anderson, Hayleigh</v>
+      </c>
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
         <f>IFERROR(Members!C5,"")</f>
         <v>Arnold, Mackenna</v>
       </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
         <f>IFERROR(Members!C6,"")</f>
         <v>Attenhofer, Bryce</v>
       </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
         <f>IFERROR(Members!C7,"")</f>
         <v>Aviles, Jesairys</v>
       </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
         <f>IFERROR(Members!C8,"")</f>
         <v>Ayala, Peyton</v>
       </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
         <f>IFERROR(Members!C9,"")</f>
         <v>Aylward, Aidan</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
         <f>IFERROR(Members!C10,"")</f>
         <v>Bailus, Erin</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
         <f>IFERROR(Members!C11,"")</f>
         <v>Ballesteros, Sharon</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
         <f>IFERROR(Members!C12,"")</f>
         <v>Bell, Rayvon</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="str">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="str">
         <f>IFERROR(Members!C13,"")</f>
         <v>Blasczienski, Wyatt</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
         <f>IFERROR(Members!C14,"")</f>
         <v>Brown, Teddy</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="str">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="str">
         <f>IFERROR(Members!C15,"")</f>
         <v>Campbell, Cade</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
         <f>IFERROR(Members!C16,"")</f>
         <v>Ramos, Arielyz Candelaria</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="str">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
         <f>IFERROR(Members!C17,"")</f>
         <v>Clemons, Aubrey</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
         <f>IFERROR(Members!C18,"")</f>
         <v>Clinard, Baylyn</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="str">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="str">
         <f>IFERROR(Members!C19,"")</f>
         <v>Colon, Anaya</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
         <f>IFERROR(Members!C20,"")</f>
         <v>Congleton, Lily Anne</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="str">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="str">
         <f>IFERROR(Members!C21,"")</f>
         <v>Conte-Marshall, Juliana</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
         <f>IFERROR(Members!C22,"")</f>
         <v>Dexter-Ward, Kylie</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="str">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="str">
         <f>IFERROR(Members!C23,"")</f>
         <v>Diaz, Kailey</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="str">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="str">
         <f>IFERROR(Members!C24,"")</f>
         <v>Doyle, Azarah</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="str">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="str">
         <f>IFERROR(Members!C25,"")</f>
         <v>Earnest, Brayden</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="str">
         <f>IFERROR(Members!C26,"")</f>
         <v>Emerson, Jonah</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="str">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="str">
         <f>IFERROR(Members!C27,"")</f>
         <v>Fashik, Cristian</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="str">
         <f>IFERROR(Members!C28,"")</f>
         <v>Freedberg, Benjamin</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="str">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="str">
         <f>IFERROR(Members!C29,"")</f>
         <v>Gainey, Jersey</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
         <f>IFERROR(Members!C30,"")</f>
         <v>Goguen, Savannah</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="str">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="str">
         <f>IFERROR(Members!C31,"")</f>
         <v>Hilderbrand, Isaac</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>349</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>360</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>351</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>356</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
         <f>IFERROR(Members!C32,"")</f>
         <v>Hiles, Elizabeth</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="str">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="str">
         <f>IFERROR(Members!C33,"")</f>
         <v>Hogan, Owen</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="str">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
         <f>IFERROR(Members!C34,"")</f>
         <v>Hopper, Ernest</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="str">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="str">
         <f>IFERROR(Members!C35,"")</f>
         <v>Irizarry, Joel</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="str">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
         <f>IFERROR(Members!C36,"")</f>
         <v>James, A'Iyana</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="str">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="str">
         <f>IFERROR(Members!C37,"")</f>
         <v>Jimenez, Nathan</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="str">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
         <f>IFERROR(Members!C38,"")</f>
         <v>Johansen, Kylie</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="str">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="str">
         <f>IFERROR(Members!C39,"")</f>
         <v>Klima, Anthony</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="str">
         <f>IFERROR(Members!C40,"")</f>
         <v>Kondrukevich, Andrey</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="str">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="str">
         <f>IFERROR(Members!C41,"")</f>
         <v>Lane, Grace</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="str">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="str">
         <f>IFERROR(Members!C42,"")</f>
         <v>Lanza, Jack</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="str">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="str">
         <f>IFERROR(Members!C43,"")</f>
         <v>Espinal, Darem Lizardo</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="str">
         <f>IFERROR(Members!C44,"")</f>
         <v>Lopiano, Ashley</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="str">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="str">
         <f>IFERROR(Members!C45,"")</f>
         <v>Lopiano, Emily</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="str">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
         <f>IFERROR(Members!C46,"")</f>
         <v>Lopez, Genesis Lozada</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="str">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="str">
         <f>IFERROR(Members!C47,"")</f>
         <v>Lucaric, Patrick</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="str">
         <f>IFERROR(Members!C48,"")</f>
         <v>MacDonald, Chelbie</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="str">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="str">
         <f>IFERROR(Members!C49,"")</f>
         <v>Maffei, Annabella</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="str">
         <f>IFERROR(Members!C50,"")</f>
         <v>Maurice, Bella</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="str">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="str">
         <f>IFERROR(Members!C51,"")</f>
         <v>Miles, Amarius</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
         <f>IFERROR(Members!C52,"")</f>
         <v>Nikolajski, Aria</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="str">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="str">
         <f>IFERROR(Members!C53,"")</f>
         <v>Nunez, Gianna</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
         <f>IFERROR(Members!C54,"")</f>
         <v>O'Cull, Randi</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="str">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="str">
         <f>IFERROR(Members!C55,"")</f>
         <v>Packer, Mckennly</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
         <f>IFERROR(Members!C56,"")</f>
         <v>Padro, Isabella</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="str">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="str">
         <f>IFERROR(Members!C57,"")</f>
         <v>Pagan, Jasmine</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
         <f>IFERROR(Members!C58,"")</f>
         <v>Page, Madison</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="str">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="str">
         <f>IFERROR(Members!C59,"")</f>
         <v>Paradiso, Victoria</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="str">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="str">
         <f>IFERROR(Members!C60,"")</f>
         <v>Echevarria, Mia Perez</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="str">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="str">
         <f>IFERROR(Members!C61,"")</f>
         <v>Reser, Seanna</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="str">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="str">
         <f>IFERROR(Members!C62,"")</f>
         <v>Reyes, Aryanna</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="str">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="str">
         <f>IFERROR(Members!C63,"")</f>
         <v>Rhea-Enriquez, Tegan</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="str">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
         <f>IFERROR(Members!C64,"")</f>
         <v>Chilel, Allen Romero</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="str">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="str">
         <f>IFERROR(Members!C65,"")</f>
         <v>Oro, Raglan Roper</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="str">
         <f>IFERROR(Members!C66,"")</f>
         <v>Schmeiser, Eric</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="str">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="str">
         <f>IFERROR(Members!C67,"")</f>
         <v>Sergi, Gabriella</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="str">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="str">
         <f>IFERROR(Members!C68,"")</f>
         <v>Shelton, Sydnie</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="str">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="str">
         <f>IFERROR(Members!C69,"")</f>
         <v>Sirolli, Regan</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="str">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="str">
         <f>IFERROR(Members!C70,"")</f>
         <v>Skinner, Cara</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="str">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="str">
         <f>IFERROR(Members!C71,"")</f>
         <v>Stalbaum, Rylie</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="str">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="str">
         <f>IFERROR(Members!C72,"")</f>
         <v>Stem, Ariana</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="str">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="str">
         <f>IFERROR(Members!C73,"")</f>
         <v>Stewart, Grayson</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="str">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="str">
         <f>IFERROR(Members!C74,"")</f>
         <v>Streb, Mackenzie</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="str">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="str">
         <f>IFERROR(Members!C75,"")</f>
         <v>Stuck, Dawson</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="str">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="str">
         <f>IFERROR(Members!C76,"")</f>
         <v>Tienter-McCready, Devlin</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="str">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="str">
         <f>IFERROR(Members!C77,"")</f>
         <v>Torres, Gabriela</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="str">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="str">
         <f>IFERROR(Members!C78,"")</f>
         <v>Turner, Alyssa</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="str">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="str">
         <f>IFERROR(Members!C79,"")</f>
         <v>Turrel, Savanah</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="str">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="str">
         <f>IFERROR(Members!C80,"")</f>
         <v>Villeda, Natalia</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="str">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="str">
         <f>IFERROR(Members!C81,"")</f>
         <v>Void, A.Dove</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="str">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="str">
         <f>IFERROR(Members!C82,"")</f>
         <v>Watkins, Chris</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="str">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="str">
         <f>IFERROR(Members!C83,"")</f>
         <v>Wutzler, Jason</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="str">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="str">
         <f>IFERROR(Members!C84,"")</f>
         <v>Wynn, Shannen</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="str">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="str">
         <f>IFERROR(Members!C85,"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-    </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="4"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="4"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="4"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="4"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="str">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="str">
         <f>IFERROR(Members!C99,"")</f>
         <v/>
       </c>
@@ -8020,7 +7990,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8126,7 +8096,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8196,8 +8166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C200"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/NHSExcel.xlsx
+++ b/public/NHSExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\Google AI Studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFF7CE8-1107-4B2C-AE2D-F89D966352AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26425E05-12D3-4470-AA07-2C97D9553C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HourTracker" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="677">
   <si>
     <t>Date</t>
   </si>
@@ -838,43 +838,13 @@
     <t>Content</t>
   </si>
   <si>
-    <t>tacos</t>
-  </si>
-  <si>
-    <t>we eat tacos</t>
-  </si>
-  <si>
-    <t>Insta</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com</t>
-  </si>
-  <si>
-    <t>Michel</t>
-  </si>
-  <si>
-    <t>AlsoM</t>
-  </si>
-  <si>
-    <t>Fatter</t>
-  </si>
-  <si>
     <t>Changelog</t>
   </si>
   <si>
-    <t xml:space="preserve">Here's an update Here's an update Here's an update Here's an update Here's an update Here's an update </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Changes</t>
-  </si>
-  <si>
-    <t>I ate a burger</t>
-  </si>
-  <si>
-    <t>Burger again</t>
   </si>
   <si>
     <t>Officer Name</t>
@@ -2099,6 +2069,36 @@
   </si>
   <si>
     <t>Test Additional Rows</t>
+  </si>
+  <si>
+    <t>First Day of School</t>
+  </si>
+  <si>
+    <t>Last day for us seniors! (kms)</t>
+  </si>
+  <si>
+    <t>BHS NHS Instagram</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/belleviewhighnhs/</t>
+  </si>
+  <si>
+    <t>Website Launch!</t>
+  </si>
+  <si>
+    <t>Wow. I finally got this website done. Honestly, it didn't take that long. It took ~3 weeks to make with 2.5 of those weeks being procrastination.</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Oh wow. A note from the future</t>
+  </si>
+  <si>
+    <t>Website is done!</t>
+  </si>
+  <si>
+    <t>A changelog from the future!</t>
   </si>
 </sst>
 </file>
@@ -4901,7 +4901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F346D39-968D-4207-91BD-686EE59FB864}">
   <dimension ref="A6:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4943,7 +4943,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E10" s="8">
         <v>45799</v>
@@ -4952,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4982,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4997,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5012,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5027,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5531,7 +5531,7 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CA057-A9D8-4BBA-AF00-0DA3974C24B1}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5576,7 +5576,7 @@
         <v>45827</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -5587,7 +5587,7 @@
         <v>45810</v>
       </c>
       <c r="R2" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5598,7 +5598,7 @@
         <v>45668</v>
       </c>
       <c r="R3" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -5609,18 +5609,18 @@
         <v>46029</v>
       </c>
       <c r="R4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B5" s="8">
         <v>46170</v>
       </c>
       <c r="R5" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -5634,13 +5634,13 @@
         <v>261</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="R6" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>257</v>
@@ -5681,72 +5681,81 @@
         <v>258</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>46146</v>
+        <v>45880</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>667</v>
       </c>
       <c r="C8" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" t="s">
         <v>265</v>
       </c>
       <c r="E8" t="s">
-        <v>266</v>
+        <v>669</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>267</v>
+        <v>670</v>
       </c>
       <c r="H8" s="8">
-        <v>46146</v>
+        <v>45827</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>671</v>
       </c>
       <c r="J8" t="s">
-        <v>272</v>
+        <v>672</v>
       </c>
       <c r="K8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L8" s="8">
         <f ca="1">TODAY()</f>
         <v>45827</v>
       </c>
       <c r="M8" t="s">
-        <v>275</v>
+        <v>675</v>
       </c>
       <c r="N8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O8" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="Q8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H9" s="8">
-        <v>46877</v>
+        <v>45828</v>
       </c>
       <c r="I9" t="s">
-        <v>269</v>
+        <v>673</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>674</v>
+      </c>
+      <c r="K9" t="s">
+        <v>265</v>
       </c>
       <c r="L9" s="8">
-        <v>45812</v>
+        <v>45828</v>
       </c>
       <c r="M9" t="s">
-        <v>276</v>
+        <v>676</v>
+      </c>
+      <c r="N9" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5777,24 +5786,24 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>304</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -5808,195 +5817,195 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="K5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" t="s">
         <v>315</v>
       </c>
-      <c r="F9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" t="s">
-        <v>324</v>
-      </c>
-      <c r="I9" t="s">
-        <v>325</v>
-      </c>
       <c r="J9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="K9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F26" s="16" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G27" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H27" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I27" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J27" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K27" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L27" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
@@ -6004,22 +6013,22 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G28" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H28" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I28" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
@@ -6037,7 +6046,7 @@
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.25">
@@ -6045,25 +6054,25 @@
         <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H32" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="J32" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
@@ -6198,7 +6207,7 @@
         <v>Anderson, Hayleigh</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -6372,19 +6381,19 @@
         <v>Hilderbrand, Isaac</v>
       </c>
       <c r="B35" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C35" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D35" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E35" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F35" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6788,688 +6797,688 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="21" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="21" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="28" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P1" s="19"/>
       <c r="Q1" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="23" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="23" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="29" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>552</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>562</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="R2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="S2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="T2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="23" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="23" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="29" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="K3" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="N3" s="24" t="s">
         <v>553</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>563</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="R3" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="S3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="T3" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="23" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="23" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="29" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K4" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="N4" s="24" t="s">
         <v>554</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>564</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="R4" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="S4" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="T4" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="23" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="23" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="29" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K5" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="N5" s="24" t="s">
         <v>555</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>565</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" t="s">
+        <v>473</v>
+      </c>
+      <c r="R5" t="s">
+        <v>482</v>
+      </c>
+      <c r="S5" t="s">
         <v>483</v>
       </c>
-      <c r="R5" t="s">
-        <v>492</v>
-      </c>
-      <c r="S5" t="s">
-        <v>493</v>
-      </c>
       <c r="T5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="23" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="23" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="29" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K6" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="N6" s="26" t="s">
         <v>556</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>566</v>
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="R6" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="S6" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="T6" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="23" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="23" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="29" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="R7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="S7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="T7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="23" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="29" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="R8" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="S8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="T8" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="23" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="23" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="29" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="R9" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="S9" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="T9" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="25" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="23" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="29" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="R10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="S10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="T10" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C11" s="17"/>
       <c r="F11" s="20"/>
       <c r="G11" s="23" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="29" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="R11" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="S11" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="T11" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="21" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="23" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="29" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="R12" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="S12" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="T12" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="29" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="23" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="29" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="R13" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="S13" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="T13" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="29" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="25" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="29" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="R14" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="S14" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="T14" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="17"/>
       <c r="D15" s="30" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="29" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="R15" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="S15" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="T15">
         <v>707290</v>
@@ -7477,203 +7486,203 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C16" s="17"/>
       <c r="G16" s="21" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="29" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="R16" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="S16" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="T16" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="29" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="R17" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="S17" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="T17" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E18" s="24">
         <v>708090</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="30" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="R18" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="S18" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="T18" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E19" s="24">
         <v>737090</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="M19" s="31" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="N19" s="36" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="R19" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="S19" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="T19" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E20" s="26">
         <v>867090</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="28" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="P20" s="19"/>
     </row>
@@ -7681,284 +7690,284 @@
       <c r="D21" s="33"/>
       <c r="E21" s="27"/>
       <c r="G21" s="31" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="31" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="P21" s="19"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="31" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="31" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="P23" s="19"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="31" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P24" s="19"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E25" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>584</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>594</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="31" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E26" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>585</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>595</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="31" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="P26" s="19"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="29" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>586</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>596</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="31" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="P27" s="19"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E28" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>587</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>597</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="31" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="P28" s="19"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="31" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="P29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="32" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="P30" s="19"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -7966,10 +7975,10 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="I32" s="17"/>
       <c r="P32" s="19"/>
@@ -8007,79 +8016,79 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="D1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C4" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="G4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G5" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -8111,47 +8120,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C4" s="8">
         <v>45823</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E4" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F4" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/public/NHSExcel.xlsx
+++ b/public/NHSExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\Google AI Studio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26425E05-12D3-4470-AA07-2C97D9553C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA6E24-A326-4900-8CBB-1B7E82BB1DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HourTracker" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="679">
   <si>
     <t>Date</t>
   </si>
@@ -2044,9 +2044,6 @@
     <t>Meeting Title</t>
   </si>
   <si>
-    <t>Bimbo</t>
-  </si>
-  <si>
     <t>Splash Text</t>
   </si>
   <si>
@@ -2099,6 +2096,15 @@
   </si>
   <si>
     <t>A changelog from the future!</t>
+  </si>
+  <si>
+    <t>Boom Bob</t>
+  </si>
+  <si>
+    <t>sdgfsdgf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2313,6 +2319,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2328,40 +2363,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3021,7 +3022,7 @@
   <dimension ref="A1:CW202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,126 +3045,126 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="27">
         <v>45720</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12">
+      <c r="C2" s="28"/>
+      <c r="D2" s="27">
         <v>45722</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12">
+      <c r="E2" s="28"/>
+      <c r="F2" s="27">
         <v>45727</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27">
         <v>45729</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14">
+      <c r="I2" s="28"/>
+      <c r="J2" s="29">
         <v>45731</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14">
+      <c r="K2" s="30"/>
+      <c r="L2" s="29">
         <v>45732</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14">
+      <c r="M2" s="30"/>
+      <c r="N2" s="29">
         <v>45733</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14">
+      <c r="O2" s="30"/>
+      <c r="P2" s="29">
         <v>45734</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="14">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="29">
         <v>45735</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="14">
+      <c r="S2" s="30"/>
+      <c r="T2" s="29">
         <v>45736</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13"/>
-      <c r="BP2" s="13"/>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-      <c r="BT2" s="13"/>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="13"/>
-      <c r="BW2" s="13"/>
-      <c r="BX2" s="13"/>
-      <c r="BY2" s="13"/>
-      <c r="BZ2" s="13"/>
-      <c r="CA2" s="13"/>
-      <c r="CB2" s="13"/>
-      <c r="CC2" s="13"/>
-      <c r="CD2" s="13"/>
-      <c r="CE2" s="13"/>
-      <c r="CF2" s="13"/>
-      <c r="CG2" s="13"/>
-      <c r="CH2" s="13"/>
-      <c r="CI2" s="13"/>
-      <c r="CJ2" s="13"/>
-      <c r="CK2" s="13"/>
-      <c r="CL2" s="13"/>
-      <c r="CM2" s="13"/>
-      <c r="CN2" s="13"/>
-      <c r="CO2" s="13"/>
-      <c r="CP2" s="13"/>
-      <c r="CQ2" s="13"/>
-      <c r="CR2" s="13"/>
-      <c r="CS2" s="13"/>
-      <c r="CT2" s="13"/>
-      <c r="CU2" s="13"/>
-      <c r="CV2" s="13"/>
-      <c r="CW2" s="13"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="28"/>
+      <c r="CU2" s="28"/>
+      <c r="CV2" s="28"/>
+      <c r="CW2" s="28"/>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4901,13 +4902,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F346D39-968D-4207-91BD-686EE59FB864}">
   <dimension ref="A6:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -4937,7 +4939,7 @@
         <v>Allen, Danielle</v>
       </c>
       <c r="B10" s="8">
-        <v>45720</v>
+        <v>45669</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -4952,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5035,98 +5037,116 @@
         <f>IFERROR(Members!C9,"")</f>
         <v>Aylward, Aidan</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>45669</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f>IFERROR(Members!C10,"")</f>
         <v>Bailus, Erin</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>45669</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IFERROR(Members!C11,"")</f>
         <v>Ballesteros, Sharon</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f>IFERROR(Members!C12,"")</f>
         <v>Bell, Rayvon</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IFERROR(Members!C13,"")</f>
         <v>Blasczienski, Wyatt</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f>IFERROR(Members!C14,"")</f>
         <v>Brown, Teddy</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IFERROR(Members!C15,"")</f>
         <v>Campbell, Cade</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f>IFERROR(Members!C16,"")</f>
         <v>Ramos, Arielyz Candelaria</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IFERROR(Members!C17,"")</f>
         <v>Clemons, Aubrey</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f>IFERROR(Members!C18,"")</f>
         <v>Clinard, Baylyn</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IFERROR(Members!C19,"")</f>
         <v>Colon, Anaya</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f>IFERROR(Members!C20,"")</f>
         <v>Congleton, Lily Anne</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IFERROR(Members!C21,"")</f>
         <v>Conte-Marshall, Juliana</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f>IFERROR(Members!C22,"")</f>
         <v>Dexter-Ward, Kylie</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IFERROR(Members!C23,"")</f>
         <v>Diaz, Kailey</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f>IFERROR(Members!C24,"")</f>
         <v>Doyle, Azarah</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IFERROR(Members!C25,"")</f>
         <v>Earnest, Brayden</v>
@@ -5549,8 +5569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CA057-A9D8-4BBA-AF00-0DA3974C24B1}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5573,10 +5593,10 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">TODAY()</f>
-        <v>45827</v>
+        <v>45855</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -5587,7 +5607,7 @@
         <v>45810</v>
       </c>
       <c r="R2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5598,7 +5618,7 @@
         <v>45668</v>
       </c>
       <c r="R3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -5606,10 +5626,10 @@
         <v>252</v>
       </c>
       <c r="B4" s="8">
-        <v>46029</v>
+        <v>45695</v>
       </c>
       <c r="R4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -5620,7 +5640,7 @@
         <v>46170</v>
       </c>
       <c r="R5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -5640,7 +5660,7 @@
         <v>629</v>
       </c>
       <c r="R6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -5680,8 +5700,8 @@
       <c r="P7" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>665</v>
+      <c r="R7" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -5689,38 +5709,38 @@
         <v>45880</v>
       </c>
       <c r="B8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" t="s">
         <v>667</v>
-      </c>
-      <c r="C8" t="s">
-        <v>668</v>
       </c>
       <c r="D8" t="s">
         <v>265</v>
       </c>
       <c r="E8" t="s">
+        <v>668</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>670</v>
       </c>
       <c r="H8" s="8">
         <v>45827</v>
       </c>
       <c r="I8" t="s">
+        <v>670</v>
+      </c>
+      <c r="J8" t="s">
         <v>671</v>
-      </c>
-      <c r="J8" t="s">
-        <v>672</v>
       </c>
       <c r="K8" t="s">
         <v>265</v>
       </c>
       <c r="L8" s="8">
         <f ca="1">TODAY()</f>
-        <v>45827</v>
+        <v>45855</v>
       </c>
       <c r="M8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N8" t="s">
         <v>265</v>
@@ -5740,10 +5760,10 @@
         <v>45828</v>
       </c>
       <c r="I9" t="s">
+        <v>672</v>
+      </c>
+      <c r="J9" t="s">
         <v>673</v>
-      </c>
-      <c r="J9" t="s">
-        <v>674</v>
       </c>
       <c r="K9" t="s">
         <v>265</v>
@@ -5752,7 +5772,7 @@
         <v>45828</v>
       </c>
       <c r="M9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N9" t="s">
         <v>265</v>
@@ -5802,18 +5822,18 @@
       <c r="E3" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -5976,11 +5996,11 @@
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
@@ -6096,7 +6116,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336726DB-5721-4490-AE16-35FE44E118ED}">
-  <dimension ref="A2:N103"/>
+  <dimension ref="A6:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
@@ -6120,88 +6140,18 @@
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IFERROR(Members!C3,"")</f>
         <v>Allen, Danielle</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f>IFERROR(Members!C4,"")</f>
         <v>Anderson, Hayleigh</v>
@@ -6209,59 +6159,50 @@
       <c r="B8" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IFERROR(Members!C5,"")</f>
         <v>Arnold, Mackenna</v>
       </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f>IFERROR(Members!C6,"")</f>
         <v>Attenhofer, Bryce</v>
       </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IFERROR(Members!C7,"")</f>
         <v>Aviles, Jesairys</v>
       </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f>IFERROR(Members!C8,"")</f>
         <v>Ayala, Peyton</v>
       </c>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IFERROR(Members!C9,"")</f>
         <v>Aylward, Aidan</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f>IFERROR(Members!C10,"")</f>
         <v>Bailus, Erin</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IFERROR(Members!C11,"")</f>
         <v>Ballesteros, Sharon</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f>IFERROR(Members!C12,"")</f>
         <v>Bell, Rayvon</v>
@@ -6796,40 +6737,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="12"/>
       <c r="Q1" s="9" t="s">
         <v>337</v>
       </c>
@@ -6844,40 +6782,37 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="P2" s="19"/>
+      <c r="P2" s="12"/>
       <c r="Q2" t="s">
         <v>370</v>
       </c>
@@ -6892,40 +6827,37 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="P3" s="19"/>
+      <c r="P3" s="12"/>
       <c r="Q3" t="s">
         <v>340</v>
       </c>
@@ -6940,40 +6872,37 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="P4" s="19"/>
+      <c r="P4" s="12"/>
       <c r="Q4" t="s">
         <v>472</v>
       </c>
@@ -6988,40 +6917,37 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="P5" s="19"/>
+      <c r="P5" s="12"/>
       <c r="Q5" t="s">
         <v>473</v>
       </c>
@@ -7036,40 +6962,37 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="P6" s="19"/>
+      <c r="P6" s="12"/>
       <c r="Q6" t="s">
         <v>395</v>
       </c>
@@ -7084,34 +7007,31 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="P7" s="19"/>
+      <c r="P7" s="12"/>
       <c r="Q7" t="s">
         <v>401</v>
       </c>
@@ -7126,40 +7046,37 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="P8" s="19"/>
+      <c r="P8" s="12"/>
       <c r="Q8" t="s">
         <v>406</v>
       </c>
@@ -7174,40 +7091,37 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="P9" s="19"/>
+      <c r="P9" s="12"/>
       <c r="Q9" t="s">
         <v>410</v>
       </c>
@@ -7222,40 +7136,37 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="P10" s="19"/>
+      <c r="P10" s="12"/>
       <c r="Q10" t="s">
         <v>417</v>
       </c>
@@ -7270,34 +7181,31 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="12"/>
       <c r="Q11" t="s">
         <v>428</v>
       </c>
@@ -7312,34 +7220,31 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="P12" s="19"/>
+      <c r="P12" s="12"/>
       <c r="Q12" t="s">
         <v>434</v>
       </c>
@@ -7354,40 +7259,37 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="P13" s="19"/>
+      <c r="P13" s="12"/>
       <c r="Q13" t="s">
         <v>438</v>
       </c>
@@ -7402,40 +7304,37 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="P14" s="19"/>
+      <c r="P14" s="12"/>
       <c r="Q14" t="s">
         <v>441</v>
       </c>
@@ -7450,27 +7349,25 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="17"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="P15" s="19"/>
+      <c r="P15" s="12"/>
       <c r="Q15" t="s">
         <v>446</v>
       </c>
@@ -7485,27 +7382,25 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="P16" s="19"/>
+      <c r="P16" s="12"/>
       <c r="Q16" t="s">
         <v>450</v>
       </c>
@@ -7520,38 +7415,37 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="P17" s="19"/>
+      <c r="P17" s="12"/>
       <c r="Q17" t="s">
         <v>462</v>
       </c>
@@ -7566,38 +7460,37 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="16">
         <v>708090</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="P18" s="19"/>
+      <c r="P18" s="12"/>
       <c r="Q18" t="s">
         <v>457</v>
       </c>
@@ -7612,33 +7505,31 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="16">
         <v>737090</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="P19" s="19"/>
+      <c r="P19" s="12"/>
       <c r="Q19" t="s">
         <v>467</v>
       </c>
@@ -7653,341 +7544,326 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="18">
         <v>867090</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="M20" s="31" t="s">
+      <c r="M20" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="P20" s="19"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="33"/>
-      <c r="E21" s="27"/>
-      <c r="G21" s="31" t="s">
+      <c r="D21" s="23"/>
+      <c r="G21" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="P21" s="19"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="N22" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="P22" s="19"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="P23" s="19"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="P24" s="19"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="P25" s="19"/>
+      <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="N26" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="P26" s="19"/>
+      <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N27" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="P27" s="19"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="M28" s="32" t="s">
+      <c r="M28" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="N28" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="P28" s="19"/>
+      <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="P29" s="19"/>
+      <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="P30" s="19"/>
+      <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="P31" s="19"/>
+      <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="P32" s="19"/>
+      <c r="P32" s="12"/>
     </row>
     <row r="33" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P33" s="19"/>
+      <c r="P33" s="12"/>
     </row>
     <row r="34" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P34" s="19"/>
+      <c r="P34" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8105,7 +7981,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8145,7 +8021,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="C4" s="8">
         <v>45823</v>
@@ -8159,12 +8035,12 @@
       <c r="F4" t="s">
         <v>656</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="34"/>
+      <c r="G5" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/NHSExcel.xlsx
+++ b/public/NHSExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archives\WALI'P\GitRepo\bhsnhs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA6E24-A326-4900-8CBB-1B7E82BB1DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC5E80-2842-460C-BD1E-78191BE74F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HourTracker" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="683">
   <si>
     <t>Date</t>
   </si>
@@ -2105,6 +2105,18 @@
   </si>
   <si>
     <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>Carson VanDeursen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@dougiefresh764</t>
+  </si>
+  <si>
+    <t>Belleview High School valedictorian, Carson VanDeursen, created resources for topics covered in AICE Chemistry AS &amp; AL.</t>
+  </si>
+  <si>
+    <t>Chemistry AS, Chemistry AL</t>
   </si>
 </sst>
 </file>
@@ -2348,9 +2360,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2358,6 +2367,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3045,126 +3057,126 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="30">
         <v>45720</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27">
+      <c r="C2" s="27"/>
+      <c r="D2" s="30">
         <v>45722</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="27">
+      <c r="E2" s="27"/>
+      <c r="F2" s="30">
         <v>45727</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27">
+      <c r="G2" s="27"/>
+      <c r="H2" s="30">
         <v>45729</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28">
         <v>45731</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="29">
+      <c r="K2" s="29"/>
+      <c r="L2" s="28">
         <v>45732</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="29">
+      <c r="M2" s="29"/>
+      <c r="N2" s="28">
         <v>45733</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="29">
+      <c r="O2" s="29"/>
+      <c r="P2" s="28">
         <v>45734</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="29">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="28">
         <v>45735</v>
       </c>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29">
+      <c r="S2" s="29"/>
+      <c r="T2" s="28">
         <v>45736</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="28"/>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="28"/>
-      <c r="BT2" s="28"/>
-      <c r="BU2" s="28"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="28"/>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="28"/>
-      <c r="CA2" s="28"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
-      <c r="CJ2" s="28"/>
-      <c r="CK2" s="28"/>
-      <c r="CL2" s="28"/>
-      <c r="CM2" s="28"/>
-      <c r="CN2" s="28"/>
-      <c r="CO2" s="28"/>
-      <c r="CP2" s="28"/>
-      <c r="CQ2" s="28"/>
-      <c r="CR2" s="28"/>
-      <c r="CS2" s="28"/>
-      <c r="CT2" s="28"/>
-      <c r="CU2" s="28"/>
-      <c r="CV2" s="28"/>
-      <c r="CW2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="27"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="27"/>
+      <c r="BV2" s="27"/>
+      <c r="BW2" s="27"/>
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="27"/>
+      <c r="CB2" s="27"/>
+      <c r="CC2" s="27"/>
+      <c r="CD2" s="27"/>
+      <c r="CE2" s="27"/>
+      <c r="CF2" s="27"/>
+      <c r="CG2" s="27"/>
+      <c r="CH2" s="27"/>
+      <c r="CI2" s="27"/>
+      <c r="CJ2" s="27"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="27"/>
+      <c r="CN2" s="27"/>
+      <c r="CO2" s="27"/>
+      <c r="CP2" s="27"/>
+      <c r="CQ2" s="27"/>
+      <c r="CR2" s="27"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="27"/>
+      <c r="CU2" s="27"/>
+      <c r="CV2" s="27"/>
+      <c r="CW2" s="27"/>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4593,56 +4605,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BV2:BW2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CB2:CC2"/>
+    <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="CH2:CI2"/>
+    <mergeCell ref="CJ2:CK2"/>
+    <mergeCell ref="CL2:CM2"/>
     <mergeCell ref="CN2:CO2"/>
     <mergeCell ref="CP2:CQ2"/>
     <mergeCell ref="CR2:CS2"/>
     <mergeCell ref="CT2:CU2"/>
     <mergeCell ref="CV2:CW2"/>
-    <mergeCell ref="CD2:CE2"/>
-    <mergeCell ref="CF2:CG2"/>
-    <mergeCell ref="CH2:CI2"/>
-    <mergeCell ref="CJ2:CK2"/>
-    <mergeCell ref="CL2:CM2"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BV2:BW2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CB2:CC2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BR2:BS2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BH2:BI2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C204">
     <cfRule type="expression" dxfId="49" priority="1">
@@ -4902,7 +4914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F346D39-968D-4207-91BD-686EE59FB864}">
   <dimension ref="A6:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5593,7 +5605,7 @@
       </c>
       <c r="B1" s="8">
         <f ca="1">TODAY()</f>
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>658</v>
@@ -5737,7 +5749,7 @@
       </c>
       <c r="L8" s="8">
         <f ca="1">TODAY()</f>
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="M8" t="s">
         <v>674</v>
@@ -6716,7 +6728,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7872,10 +7884,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8CFF37-31BE-4DD2-89A3-29A093081ECD}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7967,10 +7979,31 @@
         <v>639</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="G6" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{1BC2B467-7C70-466D-BDDB-A05348612B73}"/>
     <hyperlink ref="F5" r:id="rId2" xr:uid="{5E8B6E39-B068-4183-B728-6572EC95C057}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{F225643E-D439-4D5F-9FC0-CBE01FC9CC3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/NHSExcel.xlsx
+++ b/public/NHSExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archives\WALI'P\GitRepo\bhsnhs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC5E80-2842-460C-BD1E-78191BE74F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819F3EE-D8B7-42B6-814C-F56E341EE9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2116,7 +2116,7 @@
     <t>Belleview High School valedictorian, Carson VanDeursen, created resources for topics covered in AICE Chemistry AS &amp; AL.</t>
   </si>
   <si>
-    <t>Chemistry AS, Chemistry AL</t>
+    <t>AICE Chemistry AS, AICE Chemistry AL</t>
   </si>
 </sst>
 </file>
@@ -2360,6 +2360,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2367,9 +2370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3057,126 +3057,126 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <v>45720</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="30">
+      <c r="C2" s="28"/>
+      <c r="D2" s="27">
         <v>45722</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="30">
+      <c r="E2" s="28"/>
+      <c r="F2" s="27">
         <v>45727</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27">
         <v>45729</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28">
+      <c r="I2" s="28"/>
+      <c r="J2" s="29">
         <v>45731</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28">
+      <c r="K2" s="30"/>
+      <c r="L2" s="29">
         <v>45732</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="28">
+      <c r="M2" s="30"/>
+      <c r="N2" s="29">
         <v>45733</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="28">
+      <c r="O2" s="30"/>
+      <c r="P2" s="29">
         <v>45734</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="28">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="29">
         <v>45735</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28">
+      <c r="S2" s="30"/>
+      <c r="T2" s="29">
         <v>45736</v>
       </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="27"/>
-      <c r="BV2" s="27"/>
-      <c r="BW2" s="27"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="27"/>
-      <c r="CE2" s="27"/>
-      <c r="CF2" s="27"/>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="27"/>
-      <c r="CI2" s="27"/>
-      <c r="CJ2" s="27"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="27"/>
-      <c r="CN2" s="27"/>
-      <c r="CO2" s="27"/>
-      <c r="CP2" s="27"/>
-      <c r="CQ2" s="27"/>
-      <c r="CR2" s="27"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="27"/>
-      <c r="CU2" s="27"/>
-      <c r="CV2" s="27"/>
-      <c r="CW2" s="27"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="28"/>
+      <c r="BP2" s="28"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
+      <c r="CA2" s="28"/>
+      <c r="CB2" s="28"/>
+      <c r="CC2" s="28"/>
+      <c r="CD2" s="28"/>
+      <c r="CE2" s="28"/>
+      <c r="CF2" s="28"/>
+      <c r="CG2" s="28"/>
+      <c r="CH2" s="28"/>
+      <c r="CI2" s="28"/>
+      <c r="CJ2" s="28"/>
+      <c r="CK2" s="28"/>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="28"/>
+      <c r="CU2" s="28"/>
+      <c r="CV2" s="28"/>
+      <c r="CW2" s="28"/>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4605,56 +4605,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="CN2:CO2"/>
+    <mergeCell ref="CP2:CQ2"/>
+    <mergeCell ref="CR2:CS2"/>
+    <mergeCell ref="CT2:CU2"/>
+    <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="CH2:CI2"/>
+    <mergeCell ref="CJ2:CK2"/>
+    <mergeCell ref="CL2:CM2"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BV2:BW2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CB2:CC2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BH2:BI2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BR2:BS2"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BV2:BW2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CB2:CC2"/>
-    <mergeCell ref="CD2:CE2"/>
-    <mergeCell ref="CF2:CG2"/>
-    <mergeCell ref="CH2:CI2"/>
-    <mergeCell ref="CJ2:CK2"/>
-    <mergeCell ref="CL2:CM2"/>
-    <mergeCell ref="CN2:CO2"/>
-    <mergeCell ref="CP2:CQ2"/>
-    <mergeCell ref="CR2:CS2"/>
-    <mergeCell ref="CT2:CU2"/>
-    <mergeCell ref="CV2:CW2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C204">
     <cfRule type="expression" dxfId="49" priority="1">
@@ -7887,7 +7887,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
